--- a/output/data-incorrect-optionmerge.xlsx
+++ b/output/data-incorrect-optionmerge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,14 +453,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option</t>
+          <t>Statement; Diagram</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7014779718714664</v>
+        <v>1.226518860955153</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -468,110 +468,190 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3312924646474363</v>
+        <v>0.07870970576123008</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Project33-24 Recording16</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2140241447669244</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Project33-24 Recording41</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1131920530471023</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Project33-24 Recording68</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.08339467563238258</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>Project48-39 Recording52</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>0.2424278024987421</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="M2" t="n">
+        <v>0.2066938920183595</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Project48-39 Recording71</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>0.3732905879645117</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>0.1067575865057555</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>Project63-57 Recording30</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0.05298914488930995</v>
+      <c r="Q2" t="n">
+        <v>0.1972279422682457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram</t>
+          <t>Option; Diagram</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2644947780898826</v>
+        <v>1.134550823152648</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Project22-1 Recording42</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1484266888124767</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Project22-1 Recording53</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.325774349739237</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Project33-24 Recording68</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1686640877740268</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording52</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1519235075932915</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording71</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0.06610256873363453</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Project63-57 Recording30</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0.1391087973473333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement</t>
+          <t>Diagram; Statement</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.275406402339478</v>
+        <v>1.086854533185554</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Project22-1 Recording42</t>
+          <t>Project33-24 Recording16</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.152763605697593</v>
+        <v>0.2849546851387785</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Project33-24 Recording41</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2379689487836052</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Project33-24 Recording68</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>0.5242026599090831</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>0.07382686911513976</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Project48-39 Recording52</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>0.1085539034720849</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="n">
+        <v>0.151543457134061</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Project48-39 Recording71</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>0.1784670922327945</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="n">
+        <v>0.1284692576482366</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Project63-57 Recording30</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>0.03601273868844451</v>
+      <c r="O4" t="n">
+        <v>0.123236782180179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option</t>
+          <t>Statement; Option</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4232766773766269</v>
+        <v>1.009553269824462</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -579,7 +659,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7121244283588416</v>
+        <v>0.2465838558782109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -587,7 +667,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.02790213444615612</v>
+        <v>0.2719896626631845</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -595,33 +675,81 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.2599734371950023</v>
+        <v>0.3258792349114851</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Project63-57 Recording30</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1555472465471195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Diagram</t>
+          <t>Option; Statement</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.255844753512001</v>
+        <v>0.9773750585404338</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Project22-1 Recording42</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.138283162577081</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Project33-24 Recording68</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4325625119233232</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording52</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.177601935360622</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording71</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.202016981423471</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Project63-57 Recording30</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0.04953540871550278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Diagram</t>
+          <t>Diagram; Option</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4061032863849765</v>
+        <v>0.7930292730265522</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -629,36 +757,60 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.2371202792943083</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording52</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2578526314395256</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording71</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1716164580275242</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Project63-57 Recording30</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3334106312386418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement</t>
+          <t>Option; Statement; Diagram</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1.653823049484838</v>
+        <v>0.6481713589941003</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Project33-24 Recording16</t>
+          <t>Project22-1 Recording42</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1299268583327488</v>
+        <v>0.1770821918457458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Project33-24 Recording41</t>
+          <t>Project33-24 Recording68</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.4403499333209008</v>
+        <v>0.2916034288197871</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -666,7 +818,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.1584211047943039</v>
+        <v>0.2586941743052679</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -674,7 +826,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.1153503688985072</v>
+        <v>0.1471081439241815</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -682,1401 +834,902 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>0.1559517346535393</v>
+        <v>0.1255120611050177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram</t>
+          <t>Statement; Diagram; Option</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1.301108630562922</v>
+        <v>0.5690586236179809</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Project33-24 Recording16</t>
+          <t>Project48-39 Recording52</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3022908994937724</v>
+        <v>0.3757922780845824</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Project33-24 Recording68</t>
+          <t>Project48-39 Recording71</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.1493232077030009</v>
+        <v>0.2719183112566539</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Project48-39 Recording52</t>
+          <t>Project63-57 Recording30</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.1824241206688167</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1180507864087683</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>0.2479109857256416</v>
+        <v>0.3522894106587637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram; Statement; Option</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1.014275336993092</v>
+        <v>0.4712020687950621</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Project33-24 Recording16</t>
+          <t>Project48-39 Recording52</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3441988711570936</v>
+        <v>0.3637282489675835</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Project48-39 Recording52</t>
+          <t>Project48-39 Recording71</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.2486915629488282</v>
+        <v>0.3445074993389697</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Project48-39 Recording71</t>
+          <t>Project63-57 Recording30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.1999528852028495</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>0.2071566806912288</v>
+        <v>0.2917642516934467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Option; Diagram</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8388906721905383</v>
+        <v>0.4244086976700471</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Project33-24 Recording16</t>
+          <t>Project48-39 Recording52</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3385705408994494</v>
+        <v>0.4164440671021243</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Project48-39 Recording52</t>
+          <t>Project48-39 Recording71</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.1960339795696482</v>
+        <v>0.2463947319873791</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Project48-39 Recording71</t>
+          <t>Project63-57 Recording30</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.06872165266849944</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>0.3966738268624029</v>
+        <v>0.3371612009104967</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram; Option; Statement</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6093514156811988</v>
+        <v>0.3014940783298872</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Project33-24 Recording16</t>
+          <t>Project48-39 Recording52</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2930516348629504</v>
+        <v>0.3824293950086675</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Project48-39 Recording52</t>
+          <t>Project48-39 Recording71</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.2290116542376119</v>
+        <v>0.3749504922854986</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Project48-39 Recording71</t>
+          <t>Project63-57 Recording30</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.1156453952410443</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0.3622913156583934</v>
+        <v>0.2426201127058339</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Option; Diagram; Statement</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9032734056187227</v>
+        <v>0.2849949536709098</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Project33-24 Recording16</t>
+          <t>Project48-39 Recording52</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.4575196209162952</v>
+        <v>0.4136136666768527</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Project48-39 Recording52</t>
+          <t>Project48-39 Recording71</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.1877305224553932</v>
+        <v>0.3323025787214079</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Project48-39 Recording71</t>
+          <t>Project63-57 Recording30</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.07203722396751026</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>0.2827126326608013</v>
+        <v>0.2540837546017394</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Time; Diagram</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.634705227581033</v>
+        <v>0.06852583075113033</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Project33-24 Recording16</t>
+          <t>Project48-39 Recording52</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.3635848906566134</v>
+        <v>0.2041355890393248</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Project48-39 Recording52</t>
+          <t>Project63-57 Recording30</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.1842181487225051</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0.04790495588675701</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>0.4042920047341245</v>
+        <v>0.7958644109606752</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement; Diagram; Time; Option</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7493752121859675</v>
+        <v>0.06580441904230903</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Project33-24 Recording16</t>
+          <t>Project48-39 Recording52</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.4619232669093723</v>
+        <v>0.1903177056438463</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Project48-39 Recording52</t>
+          <t>Project63-57 Recording30</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.1948988602872962</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0.09588569950024153</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>0.24729217330309</v>
+        <v>0.8096822943561538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram</t>
+          <t>Diagram; Time; Option</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9876626411184944</v>
+        <v>0.06094357590344134</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Project33-24 Recording68</t>
+          <t>Project48-39 Recording52</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7232081933126578</v>
+        <v>0.2699683625781833</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Project48-39 Recording52</t>
+          <t>Project63-57 Recording30</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.1193609865478244</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0.118674152194996</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>0.0387566679445219</v>
+        <v>0.7300316374218168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Statement-&gt;Time</t>
+          <t>Time; Statement; Diagram; Option</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004338195582755567</v>
+        <v>0.05803898383320551</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording52</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option</t>
+          <t>Time; Diagram</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.117666822242015</v>
+        <v>0.05501973331486031</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording52</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3007754616963951</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Project63-57 Recording30</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6992245383036049</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Time-&gt;Diagram</t>
+          <t>Statement; Time; Option</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01580830180267435</v>
+        <v>0.05496528432189245</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording52</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2703848748190988</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Project63-57 Recording30</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7296151251809012</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Time</t>
+          <t>Time; Statement; Option; Diagram</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.005308961038767811</v>
+        <v>0.05014421731053344</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording52</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Option</t>
+          <t>Diagram; Statement; Time; Option</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08698885105919923</v>
+        <v>0.04875664229778781</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Project48-39 Recording52</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2441587291601666</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Project63-57 Recording30</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7558412708398334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement</t>
+          <t>Time; Option; Statement; Diagram</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4478100924480886</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording52</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0.335720313917259</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0.5681270840305395</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0.09615260205220158</v>
+        <v>0.04875111093268984</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Statement-&gt;Time-&gt;Diagram</t>
+          <t>Time; Diagram; Statement; Option</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01212293950341678</v>
+        <v>0.04702747185603727</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option-&gt;Statement</t>
+          <t>Diagram; Time; Statement</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02276156020485276</v>
+        <v>0.04661210014628324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Time-&gt;Diagram-&gt;Statement</t>
+          <t>Statement; Option; Time; Diagram</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01217164185869832</v>
+        <v>0.04471906825116921</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Option</t>
+          <t>Time; Statement; Option</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2911682909467858</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording52</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0.4776541037328495</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0.417346599945657</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0.1049992963214934</v>
+        <v>0.04446859229745315</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Statement</t>
+          <t>Time; Option</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01994570263530231</v>
+        <v>0.04238081831652568</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Option</t>
+          <t>Time; Statement; Diagram</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1471755530892344</v>
+        <v>0.04216159134607524</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Time-&gt;Diagram</t>
+          <t>Statement; Diagram; Time</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01112581102228877</v>
+        <v>0.04176775702630243</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Statement-&gt;Time-&gt;Diagram-&gt;Statement</t>
+          <t>Time; Option; Diagram; Statement</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01030171432389554</v>
+        <v>0.03742839382788795</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Statement</t>
+          <t>Time; Diagram; Option</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1305888779970174</v>
+        <v>0.03590120668129333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement</t>
+          <t>Option; Time; Diagram</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2728211947868796</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording52</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0.470088668211958</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>0.4366327454471283</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0.09327858634091374</v>
+        <v>0.0349176667925123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Option</t>
+          <t>Time; Diagram; Option; Statement</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08206485772014872</v>
+        <v>0.03418375049032082</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Time; Option; Statement</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3090098114495926</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording52</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>0.4142621274215698</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>0.4556104530836598</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>0.1301274194947704</v>
+        <v>0.03305030723672032</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Time</t>
+          <t>Diagram; Time; Statement; Option</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005189023239754441</v>
+        <v>0.0330458419256371</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
+          <t>Time; Statement</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2717890023585242</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording52</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>0.4392908176453573</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0.4710869836736665</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>0.08962219868097629</v>
+        <v>0.03299951753375449</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option-&gt;Statement-&gt;Diagram</t>
+          <t>Time; Option; Diagram</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03729248256466682</v>
+        <v>0.03289542433361441</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Diagram; Option; Time</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01673955827613746</v>
+        <v>0.0302500404588855</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
+          <t>Time; Diagram; Statement</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2704405513713569</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording52</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>0.3879190010757606</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>0.4728075441794056</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0.139273454744834</v>
+        <v>0.03007993484240115</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement-&gt;Option</t>
+          <t>Option; Statement; Time; Diagram</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08085583426465959</v>
+        <v>0.02922433446507917</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Time</t>
+          <t>Diagram; Time</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.006989466378713699</v>
+        <v>0.02783565211349818</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Time-&gt;Diagram-&gt;Statement</t>
+          <t>Statement; Option; Diagram; Time</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" t="n">
-        <v>0.009969126319809922</v>
+        <v>0.02763999535805253</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Statement-&gt;Option</t>
+          <t>Diagram; Statement; Time</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04830061257157241</v>
+        <v>0.02699442627874425</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram; Time; Option; Statement</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2762329618937218</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording52</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>0.3533085268018948</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Project48-39 Recording71</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>0.5133666077935228</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Project63-57 Recording30</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0.1333248654045823</v>
+        <v>0.02645199370530973</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
+          <t>Statement; Time; Diagram; Option</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1595482500005144</v>
+        <v>0.02607841063993453</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Option-&gt;Statement</t>
+          <t>Diagram; Option; Time; Statement</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>0.149906958440717</v>
+        <v>0.02539463501429035</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Time; Option; Diagram</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1350846541660896</v>
+        <v>0.02442310940002126</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
+          <t>Statement; Time</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1023853633247412</v>
+        <v>0.02383252077513818</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Time-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Option; Diagram; Time; Statement</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01511525159658228</v>
+        <v>0.02327563028113739</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Statement-&gt;Time-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Option; Time</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01456684931374563</v>
+        <v>0.02170957935872184</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Option-&gt;Statement</t>
+          <t>Diagram; Option; Time</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2621774033097264</v>
+        <v>0.02141330042422112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
+          <t>Diagram; Statement; Option; Time</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1676209093213798</v>
+        <v>0.0203708148190089</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Time-&gt;Diagram</t>
+          <t>Option; Diagram; Time</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01008346701713708</v>
+        <v>0.01906468247751422</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Option; Statement; Diagram; Time</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
-        <v>0.05693608628376522</v>
+        <v>0.01835776281487847</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
+          <t>Diagram; Option; Statement; Time</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08485399909861976</v>
+        <v>0.01766747555831241</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Option</t>
+          <t>Option; Diagram; Statement; Time</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04348640897923874</v>
+        <v>0.01674299873484168</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Statement-&gt;Diagram</t>
+          <t>Option; Time; Statement</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>0.03279174325058357</v>
+        <v>0.01664735805059661</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Option-&gt;Statement</t>
+          <t>Option; Statement; Time</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02643511728638075</v>
+        <v>0.01231177263431257</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram-&gt;Statement</t>
+          <t>Option; Time</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03418427922493657</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.002875985520900481</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>4</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.002702434670501314</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.004388357217236079</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Option-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>4</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.05871555775709281</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>5</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.003203716310920668</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.002482880140963518</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.004224900885026631</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>5</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.003704296984502022</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Option-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>5</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.02853877354743283</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>5</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.004705458331664731</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Option-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>3</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.007462484057420423</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>3</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.06601980142906994</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.05253852291408066</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Option-&gt;Diagram-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>4</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.0059417291130746</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>4</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.006410077172575774</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>4</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.0466742651529197</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Option-&gt;Diagram-&gt;Option-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>5</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.005230655790589428</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>5</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.06421481444237651</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Diagram-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>5</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.005426517351030002</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>5</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.04599529745613878</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>5</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.03916280650420369</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>5</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.005426517351030002</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Option-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>5</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.03477118761233237</v>
+        <v>0.01043660976811594</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,40 +1771,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram</t>
+          <t>Diagram; Statement</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1942857142857143</v>
+        <v>0.08023906736868625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement</t>
+          <t>Statement; Diagram</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6685714285714286</v>
+        <v>0.1022851425663543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram</t>
+          <t>Option; Diagram</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.1913579796203126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Option; Statement</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4227758104134551</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Option; Statement; Diagram</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1890089907454608</v>
       </c>
     </row>
   </sheetData>
@@ -2165,7 +1844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2193,703 +1872,534 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Statement-&gt;Time</t>
+          <t>Time; Diagram</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001285140562248996</v>
+        <v>0.01654858569018964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement</t>
+          <t>Time; Diagram; Statement</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2620004746336729</v>
+        <v>0.03007993484240115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option</t>
+          <t>Time; Diagram; Statement; Option</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1700577632220741</v>
+        <v>0.04702747185603727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option</t>
+          <t>Time; Diagram; Option</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01068273092369478</v>
+        <v>0.03590120668129333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram</t>
+          <t>Time; Diagram; Option; Statement</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2373535978250493</v>
+        <v>0.03418375049032082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Time-&gt;Diagram</t>
+          <t>Time; Statement</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005220883534136547</v>
+        <v>0.02033509773680031</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement</t>
+          <t>Time; Statement; Diagram</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1384503434872387</v>
+        <v>0.04216159134607524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Time</t>
+          <t>Time; Statement; Diagram; Option</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001781241302532702</v>
+        <v>0.05803898383320551</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Option</t>
+          <t>Time; Statement; Option</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01013080990815475</v>
+        <v>0.04446859229745315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram</t>
+          <t>Time; Statement; Option; Diagram</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1178883872203333</v>
+        <v>0.05014421731053344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option</t>
+          <t>Time; Option</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01181032276008489</v>
+        <v>0.01812206311398014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Time; Option; Diagram</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2522417188172615</v>
+        <v>0.03289542433361441</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement</t>
+          <t>Time; Option; Diagram; Statement</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1503389448119891</v>
+        <v>0.03742839382788795</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Statement-&gt;Time-&gt;Diagram</t>
+          <t>Time; Option; Statement</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004063456721402727</v>
+        <v>0.03305030723672032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option-&gt;Statement</t>
+          <t>Time; Option; Statement; Diagram</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01063178402449207</v>
+        <v>0.04875111093268984</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Time-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram; Statement</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00456443083774005</v>
+        <v>0.1647056933607649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Option</t>
+          <t>Diagram; Statement; Time</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1390777290476125</v>
+        <v>0.004184457600911833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Diagram; Statement; Time; Option</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1644510768933685</v>
+        <v>0.01190435982154469</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram; Statement; Option</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0.139548575717182</v>
+        <v>0.1713895033927308</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Statement</t>
+          <t>Diagram; Time</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01024721403868323</v>
+        <v>0.004030954306451798</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Option</t>
+          <t>Diagram; Time; Statement</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02053108243043748</v>
+        <v>0.01776641855166527</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Time-&gt;Diagram</t>
+          <t>Diagram; Time; Statement; Option</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003800008539345032</v>
+        <v>0.0330458419256371</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Statement-&gt;Time-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram; Time; Option</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003842705264506213</v>
+        <v>0.01645283739631128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Statement</t>
+          <t>Diagram; Time; Option; Statement</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01250048027505411</v>
+        <v>0.02645199370530973</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement</t>
+          <t>Diagram; Option</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1282501521173594</v>
+        <v>0.2044846848584705</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Option</t>
+          <t>Diagram; Option; Statement</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00917979590965373</v>
+        <v>0.1153001979743946</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement; Diagram</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1280110618852464</v>
+        <v>0.2535139570047457</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Time</t>
+          <t>Statement; Diagram; Time</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001707869006447205</v>
+        <v>0.004477237316868743</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
+          <t>Statement; Diagram; Time; Option</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1193944130730921</v>
+        <v>0.01252374605335848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Diagram; Option</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02706972375218821</v>
+        <v>0.213847836533078</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Time-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Time</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004226975790956834</v>
+        <v>0.003460612527711075</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Time; Diagram</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1695719883568651</v>
+        <v>0.01398856082479107</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Time; Diagram; Option</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1049090285383547</v>
+        <v>0.02607841063993453</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement-&gt;Option</t>
+          <t>Statement; Time; Option</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01470240744421204</v>
+        <v>0.01486178152077106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Time</t>
+          <t>Statement; Time; Option; Diagram</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002294549562270545</v>
+        <v>0.02442310940002126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Time-&gt;Diagram-&gt;Statement</t>
+          <t>Statement; Option</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003741880824625812</v>
+        <v>0.2745880533000704</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Statement-&gt;Option</t>
+          <t>Statement; Option; Diagram</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003812482349618752</v>
+        <v>0.1767424841712303</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Option; Diagram</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09759546082079479</v>
+        <v>0.1723649405962064</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
+          <t>Option; Diagram; Statement</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>0.05715193448178481</v>
+        <v>0.1178778077722248</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Option-&gt;Statement</t>
+          <t>Option; Statement</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01981694288219285</v>
+        <v>0.1735837019699823</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Option; Statement; Diagram</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07160730617848676</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.05149558639063773</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Time-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.00465970064953403</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Time-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.003777181587122282</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.1460523747825959</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.1164093868945908</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.09707925544999779</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Time-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.003424173962157583</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.04416125388308387</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.1169242220094742</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.008595118826693175</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.008154476136684552</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.02411042078508896</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.00963710816153629</v>
+        <v>0.1676781545233021</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2931,651 +2441,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement</t>
+          <t>Diagram; Statement</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1907690988509302</v>
+        <v>0.1396273950499688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram</t>
+          <t>Diagram; Statement; Option</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002828922132719601</v>
+        <v>0.162332646403936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option</t>
+          <t>Diagram; Option</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2618551245640529</v>
+        <v>0.1360968749489593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option</t>
+          <t>Diagram; Option; Statement</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004794783275795934</v>
+        <v>0.1130453530909539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram</t>
+          <t>Statement; Diagram</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1535968970411885</v>
+        <v>0.1309401933993604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement</t>
+          <t>Statement; Diagram; Option</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2276180720406163</v>
+        <v>0.1547374599402372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram-&gt;Statement</t>
+          <t>Statement; Option</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004409459106349621</v>
+        <v>0.3289924471727838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Option</t>
+          <t>Statement; Option; Diagram</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003527567285079697</v>
+        <v>0.1045720673155239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram</t>
+          <t>Option; Diagram</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1172100265894079</v>
+        <v>0.07499672376924955</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option</t>
+          <t>Option; Diagram; Statement</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1100406927020818</v>
+        <v>0.09470455802743152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Option; Statement</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2028072800218612</v>
+        <v>0.1974463590449267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement</t>
+          <t>Option; Statement; Diagram</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2544130420219788</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.003527567285079697</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.003298928664750457</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1215180962386289</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05764995340112219</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.07046868530714212</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.002875985520900481</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1266444706587969</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.002875985520900481</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.002702434670501314</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1180883977219633</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.119122667295961</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1407881002018452</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1280362613167522</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.004388357217236079</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.002875985520900481</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Option-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.00419001338820846</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.06506930862445168</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>4</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.1278663329404156</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.06615342682044754</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.003203716310920668</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Statement-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.04448813022195366</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.1418087786081374</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.002482880140963518</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.09269540764279058</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.1300900155585242</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>5</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0311265072890608</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.03928785979506481</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>5</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.07185436640859341</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.004224900885026631</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.1242025104062582</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.04930666358204996</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.003704296984502022</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Option-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.005766689359657203</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.00364422730367226</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.004705458331664731</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.03040552592836345</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.07625888027192659</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.002482880140963518</v>
+        <v>0.09535128556643645</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +2605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3617,833 +2633,547 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement</t>
+          <t>Time; Diagram</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2579165733771668</v>
+        <v>0.03847114762467067</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram</t>
+          <t>Time; Statement</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05039825032336022</v>
+        <v>0.01266441979695418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option</t>
+          <t>Time; Option</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03717071788815643</v>
+        <v>0.02425875520254554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Statement-&gt;Time</t>
+          <t>Diagram; Statement</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003053055020506571</v>
+        <v>0.1339404553677283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option</t>
+          <t>Diagram; Statement; Time</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1021893080425243</v>
+        <v>0.02280996867783242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram</t>
+          <t>Diagram; Statement; Time; Option</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3225591231389935</v>
+        <v>0.03685228247624311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Time-&gt;Diagram</t>
+          <t>Diagram; Statement; Option</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01058741826853781</v>
+        <v>0.1374799189983953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement</t>
+          <t>Diagram; Statement; Option; Time</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04593087748902074</v>
+        <v>0.0203708148190089</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Time</t>
+          <t>Diagram; Time</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003527719736235109</v>
+        <v>0.02380469780704638</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram; Time; Statement</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02977482011858695</v>
+        <v>0.02884568159461797</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Option</t>
+          <t>Diagram; Time; Option</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07333047386596479</v>
+        <v>0.04449073850713006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram</t>
+          <t>Diagram; Option</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03827851302303899</v>
+        <v>0.264404390510504</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram-&gt;Option</t>
+          <t>Diagram; Option; Statement</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007462484057420423</v>
+        <v>0.07314852726453874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram; Option; Statement; Time</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2101139121184664</v>
+        <v>0.01766747555831241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement</t>
+          <t>Diagram; Option; Time</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04305810561412066</v>
+        <v>0.02141330042422112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Statement-&gt;Time-&gt;Diagram</t>
+          <t>Diagram; Option; Time; Statement</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008059482782014057</v>
+        <v>0.02539463501429035</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option-&gt;Statement</t>
+          <t>Statement; Diagram</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008602208895280997</v>
+        <v>0.2419037910993773</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Time-&gt;Diagram-&gt;Statement</t>
+          <t>Statement; Diagram; Time</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007607211020958273</v>
+        <v>0.03729051970943369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Option</t>
+          <t>Statement; Diagram; Time; Option</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03057246566054438</v>
+        <v>0.05328067298895055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option-&gt;Diagram</t>
+          <t>Statement; Diagram; Option</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06601980142906994</v>
+        <v>0.2004733271446657</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Diagram; Option; Time</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3327659732569944</v>
+        <v>0.0302500404588855</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Diagram</t>
+          <t>Statement; Time</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05253852291408066</v>
+        <v>0.02037190824742711</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Time-&gt;Diagram</t>
+          <t>Statement; Time; Diagram</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007325802482943742</v>
+        <v>0.05453726992633926</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement</t>
+          <t>Statement; Time; Option</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02544837537355919</v>
+        <v>0.04010350280112139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
+          <t>Statement; Option</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02435832796867999</v>
+        <v>0.1570332313638363</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Time-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Option; Diagram</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01251258248518063</v>
+        <v>0.143094146183293</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Option; Diagram; Time</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05452554436888435</v>
+        <v>0.02763999535805253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
+          <t>Statement; Option; Time</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03766518989258663</v>
+        <v>0.02170957935872184</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement; Option; Time; Diagram</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2207627260854461</v>
+        <v>0.04471906825116921</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram-&gt;Option-&gt;Diagram</t>
+          <t>Option; Statement</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0059417291130746</v>
+        <v>0.04841467299313884</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Statement</t>
+          <t>Option; Statement; Diagram</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0068225030757186</v>
+        <v>0.08135332321658989</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Option</t>
+          <t>Option; Statement; Diagram; Time</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07288506181049499</v>
+        <v>0.01835776281487847</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Statement-&gt;Time-&gt;Diagram-&gt;Statement</t>
+          <t>Option; Statement; Time</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00645900905938933</v>
+        <v>0.01231177263431257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Option; Statement; Time; Diagram</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04021064936250105</v>
+        <v>0.02922433446507917</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option-&gt;Diagram-&gt;Option</t>
+          <t>Option; Diagram</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006410077172575774</v>
+        <v>0.157826000538192</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option-&gt;Diagram-&gt;Statement</t>
+          <t>Option; Diagram; Statement</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0466742651529197</v>
+        <v>0.07241258787125354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Time</t>
+          <t>Option; Diagram; Statement; Time</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003481154233307236</v>
+        <v>0.01674299873484168</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Option-&gt;Statement-&gt;Diagram</t>
+          <t>Option; Diagram; Time</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007346773291578124</v>
+        <v>0.01906468247751422</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Option; Diagram; Time; Statement</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2553668025149569</v>
+        <v>0.02327563028113739</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram-&gt;Option-&gt;Diagram-&gt;Statement</t>
+          <t>Option; Time</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.005230655790589428</v>
+        <v>0.01043660976811594</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Time</t>
+          <t>Option; Time; Diagram</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>0.004694916816443154</v>
+        <v>0.0349176667925123</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement-&gt;Time-&gt;Diagram-&gt;Statement</t>
+          <t>Option; Time; Statement</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00622724549518411</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.006198442324531084</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.06421481444237651</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Diagram-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.005426517351030002</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.03682872246478957</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.009700907875938983</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Option-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.04599529745613878</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Option-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.03235084069854202</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.01160191713903867</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Time-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.01045555094704825</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Time-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.01078966772662335</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.03916280650420369</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Option-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.005426517351030002</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Option-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>5</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.03477118761233237</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.0215655060088774</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Option-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.02123499028933205</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Option-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>5</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.02277208418777563</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Option-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>5</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.00913060509700908</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>5</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.2566062488739645</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Time-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.006659293054979492</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Option</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>5</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.03533193284255418</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>5</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.1853146248409321</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Option-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.01679800912484446</v>
+        <v>0.01664735805059661</v>
       </c>
     </row>
   </sheetData>
@@ -4485,79 +3215,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option</t>
+          <t>Diagram; Option</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2323943661971831</v>
+        <v>0.1880433227086183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Option-&gt;Diagram</t>
+          <t>Statement; Diagram</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2112676056338028</v>
+        <v>0.09653893865637915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement</t>
+          <t>Statement; Option</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1948356807511737</v>
+        <v>0.2489395379877717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option</t>
+          <t>Option; Diagram</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3014256619144603</v>
+        <v>0.1683976219700174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option-&gt;Diagram</t>
+          <t>Option; Statement</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2525458248472505</v>
+        <v>0.1351545141189308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement-&gt;Option-&gt;Diagram</t>
+          <t>Option; Statement; Diagram</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4061032863849765</v>
+        <v>0.1147796049423111</v>
       </c>
     </row>
   </sheetData>
@@ -4607,7 +3337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4630,6 +3360,19 @@
         <is>
           <t>support</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Option; Diagram</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3696075566586701</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +3494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4779,105 +3522,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement</t>
+          <t>Diagram; Statement</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2148760330578512</v>
+        <v>0.3097042912955437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram</t>
+          <t>Statement; Diagram</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3933132982719759</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.349112426035503</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2840236686390533</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1785714285714286</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4132653061224489</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Diagram-&gt;Statement-&gt;Diagram-&gt;Statement-&gt;Diagram</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Statement-&gt;Diagram-&gt;Statement-&gt;Diagram-&gt;Statement</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.2625046502564288</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +3556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4919,14 +3584,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement</t>
+          <t>Diagram; Statement</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7282608695652174</v>
+        <v>0.2586376307428623</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Statement; Diagram</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1388321879725072</v>
       </c>
     </row>
   </sheetData>
